--- a/Analysis/info.xlsx
+++ b/Analysis/info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="399">
   <si>
     <t xml:space="preserve">Sample name</t>
   </si>
@@ -60,6 +60,9 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Row</t>
+  </si>
+  <si>
     <t xml:space="preserve">T_monococcum_1</t>
   </si>
   <si>
@@ -720,6 +723,9 @@
     <t xml:space="preserve">barley</t>
   </si>
   <si>
+    <t xml:space="preserve">6_row</t>
+  </si>
+  <si>
     <t xml:space="preserve">H_vulgare_2</t>
   </si>
   <si>
@@ -753,6 +759,9 @@
     <t xml:space="preserve">00003921</t>
   </si>
   <si>
+    <t xml:space="preserve">2_row</t>
+  </si>
+  <si>
     <t xml:space="preserve">H_vulgare_7</t>
   </si>
   <si>
@@ -1141,6 +1150,75 @@
   </si>
   <si>
     <t xml:space="preserve">00004932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_wild_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_wild_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_wild_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_wild_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_wild_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_monococcum_wild_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005647</t>
   </si>
 </sst>
 </file>
@@ -1306,30 +1384,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BE148"/>
+  <dimension ref="A1:BE1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H161" activeCellId="0" sqref="H161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1366,2996 +1444,2926 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>687</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>684</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1212</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1218</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1068</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>1162</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>1186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>1036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>1086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>1224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>1285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>1288</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>1238</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>1400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>1200</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>1285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>1367</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>807</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>916</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>831</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>881</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>845</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>869</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>854</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>1101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>822</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>511</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>658</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>476</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>740</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>1224</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>1279</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>666</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>816</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>631</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>731</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L39" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>837</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L40" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>731</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L41" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>719</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L42" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>816</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L43" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3" t="n">
         <v>707</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L44" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>822</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L45" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>837</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L46" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="3" t="n">
         <v>889</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L47" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>986</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>910</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L49" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>793</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L50" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>379</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L51" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>640</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L52" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>1218</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L53" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>1233</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L54" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="3" t="n">
         <v>1238</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L55" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>713</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L56" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>751</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L57" s="0"/>
+        <v>103</v>
+      </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>969</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>936</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="3" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="J59" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>1039</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>537</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L61" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>825</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L62" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" s="3" t="n">
         <v>1062</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L63" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="3" t="n">
         <v>1039</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L64" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" s="3" t="n">
         <v>1247</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F65" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L65" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>1121</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L66" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>957</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" s="3" t="n">
         <v>1262</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F68" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L68" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="10"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>1279</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F69" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L69" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>1253</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F70" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L70" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="10"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3" t="n">
         <v>1106</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F71" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L71" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3" t="n">
         <v>1103</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F72" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L72" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" s="3" t="n">
         <v>1018</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F73" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>828</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F74" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L74" s="0"/>
+        <v>20</v>
+      </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D75" s="3" t="n">
         <v>781</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F75" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -4363,42 +4371,42 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D76" s="3" t="n">
         <v>816</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F76" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -4406,40 +4414,40 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" s="3" t="n">
         <v>992</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK77" s="3"/>
       <c r="AL77" s="8"/>
@@ -4463,40 +4471,40 @@
       <c r="BD77" s="9"/>
       <c r="BE77" s="10"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3" t="n">
         <v>945</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F78" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK78" s="3"/>
       <c r="AL78" s="8"/>
@@ -4520,40 +4528,40 @@
       <c r="BD78" s="9"/>
       <c r="BE78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="3" t="n">
         <v>564</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F79" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK79" s="3"/>
       <c r="AL79" s="8"/>
@@ -4577,40 +4585,40 @@
       <c r="BD79" s="9"/>
       <c r="BE79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="3" t="n">
         <v>625</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F80" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK80" s="3"/>
       <c r="AL80" s="8"/>
@@ -4634,40 +4642,40 @@
       <c r="BD80" s="9"/>
       <c r="BE80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" s="3" t="n">
         <v>710</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F81" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK81" s="3"/>
       <c r="AL81" s="8"/>
@@ -4691,40 +4699,40 @@
       <c r="BD81" s="9"/>
       <c r="BE81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3" t="n">
         <v>622</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F82" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK82" s="3"/>
       <c r="AL82" s="8"/>
@@ -4748,40 +4756,40 @@
       <c r="BD82" s="9"/>
       <c r="BE82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>619</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F83" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK83" s="3"/>
       <c r="AL83" s="8"/>
@@ -4805,40 +4813,40 @@
       <c r="BD83" s="9"/>
       <c r="BE83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" s="3" t="n">
         <v>728</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F84" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK84" s="3"/>
       <c r="AL84" s="8"/>
@@ -4862,40 +4870,40 @@
       <c r="BD84" s="9"/>
       <c r="BE84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" s="3" t="n">
         <v>678</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F85" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK85" s="3"/>
       <c r="AL85" s="8"/>
@@ -4919,2174 +4927,2617 @@
       <c r="BD85" s="9"/>
       <c r="BE85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>719</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F86" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" s="3" t="n">
         <v>749</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F87" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" s="3" t="n">
         <v>705</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" s="3" t="n">
         <v>1370</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F89" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>1103</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F90" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" s="3" t="n">
         <v>1403</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F91" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="3" t="n">
         <v>1259</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F92" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" s="3" t="n">
         <v>1124</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F93" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" s="3" t="n">
         <v>1373</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F94" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="C95" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" s="3" t="n">
         <v>1250</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F95" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L95" s="0"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" s="3" t="n">
         <v>1403</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" s="3" t="n">
         <v>1426</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F97" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L97" s="0"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="3" t="n">
         <v>1397</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F98" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L98" s="0"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="3" t="n">
         <v>1241</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F99" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" s="3" t="n">
         <v>1030</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F100" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" s="3" t="n">
         <v>1042</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F101" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>992</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F102" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" s="3" t="n">
         <v>1018</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F103" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L103" s="0"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" s="3" t="n">
         <v>1030</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F104" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" s="3" t="n">
         <v>992</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F105" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" s="3" t="n">
         <v>1051</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F106" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L106" s="0"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" s="3" t="n">
         <v>1139</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F107" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="3" t="n">
         <v>1015</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F108" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" s="3" t="n">
         <v>1021</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F109" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" s="3" t="n">
         <v>957</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F110" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L110" s="0"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M110" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>989</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F111" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L111" s="0"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" s="3" t="n">
         <v>963</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F112" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L112" s="6"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M112" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" s="3" t="n">
         <v>969</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F113" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L113" s="6"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M113" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D114" s="3" t="n">
         <v>969</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F114" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D115" s="3" t="n">
         <v>969</v>
       </c>
       <c r="E115" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F115" s="3" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="H115" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K115" s="5"/>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D116" s="3" t="n">
         <v>743</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F116" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K116" s="5"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D117" s="3" t="n">
         <v>986</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F117" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>1329</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F118" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K118" s="5"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" s="3" t="n">
         <v>966</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F119" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K119" s="5"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>804</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F120" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K120" s="5"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" s="3" t="n">
         <v>1068</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F121" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K121" s="5"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D122" s="3" t="n">
         <v>848</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F122" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K122" s="5"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123" s="3" t="n">
         <v>751</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F123" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K123" s="5"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D124" s="3" t="n">
         <v>1174</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F124" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K124" s="5"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>989</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F125" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>1007</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F126" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>998</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F127" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D128" s="3" t="n">
         <v>1203</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F128" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D129" s="3" t="n">
         <v>1388</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F129" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" s="3" t="n">
         <v>1388</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F130" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D131" s="3" t="n">
         <v>1007</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F131" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D132" s="3" t="n">
         <v>1098</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F132" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D133" s="3" t="n">
         <v>1423</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F133" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D134" s="3" t="n">
         <v>1156</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F134" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>1227</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F135" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>1221</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F136" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" s="3" t="n">
         <v>1127</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F137" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>1397</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F138" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139" s="3" t="n">
         <v>992</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F139" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D140" s="3" t="n">
         <v>769</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F140" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D141" s="3" t="n">
         <v>1203</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F141" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>1353</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F142" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D143" s="3" t="n">
         <v>1238</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F143" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>1256</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F144" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D145" s="3" t="n">
         <v>784</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F145" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>1329</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F146" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D147" s="3" t="n">
         <v>1294</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F147" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D148" s="3" t="n">
         <v>1224</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F148" s="3" t="n">
         <v>68.8</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I148" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="3" t="n">
+        <v>684</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="3" t="n">
+        <v>798</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="3" t="n">
+        <v>793</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F152" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>1212</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F153" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="3" t="n">
+        <v>1218</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F154" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F155" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J148" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K148" s="5" t="s">
+      <c r="H155" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J155" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
+      <c r="K155" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3" t="n">
+        <v>1225</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="3" t="n">
+        <v>1226</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F157" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="3" t="n">
+        <v>1227</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>1228</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F159" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>1229</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="F160" s="3" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7101,18 +7552,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.29"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7127,18 +7578,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.29"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
